--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>98800</v>
+        <v>98700</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
